--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/N-back HDG/n3-back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AB50BD-AE74-E147-B091-88105D839299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35DB914-8417-BA41-A341-35C82F5995BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="5900" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="4780" windowWidth="16300" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1094,10 +1094,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
